--- a/CashFlow/IP_cashflow.xlsx
+++ b/CashFlow/IP_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>7895000000.0</v>
+        <v>68000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>8069000000.0</v>
+        <v>35000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>6027000000.0</v>
+        <v>82000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3963000000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2023000000.0</v>
+        <v>81000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-1000000.0</v>
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>6820000000.0</v>
+        <v>3977000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>9131000000.0</v>
+        <v>141000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>6961000000.0</v>
+        <v>150000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>4722000000.0</v>
+        <v>100000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2484000000.0</v>
+        <v>74000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>139000000.0</v>
